--- a/ESS Current Lots.xlsx
+++ b/ESS Current Lots.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLicas\Documents\LOCAL_DRIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A3B06D-F9AB-4B78-87EF-E4F3E45D172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C1BF77-02F3-41B7-A4ED-E78835180527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" tabRatio="688" activeTab="1" xr2:uid="{F856DA7B-FB10-4A42-A93A-AC67FFC85E94}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="688" activeTab="1" xr2:uid="{F856DA7B-FB10-4A42-A93A-AC67FFC85E94}"/>
   </bookViews>
   <sheets>
     <sheet name="TGWDSXX959" sheetId="2" r:id="rId1"/>
-    <sheet name="TGWD13A84" sheetId="1" r:id="rId2"/>
+    <sheet name="TGWFS0XW86" sheetId="5" r:id="rId2"/>
     <sheet name="TGWBS00R31" sheetId="3" r:id="rId3"/>
     <sheet name="TGWBS02G30" sheetId="4" r:id="rId4"/>
+    <sheet name="FINISHED&gt;&gt;" sheetId="6" r:id="rId5"/>
+    <sheet name="TGWD13A84" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
   <si>
     <t>S100_1</t>
   </si>
@@ -177,6 +179,15 @@
   </si>
   <si>
     <t>B34_25C_FT2-RT3</t>
+  </si>
+  <si>
+    <t>BIN2 = HB6</t>
+  </si>
+  <si>
+    <t>TGWFS0XW86</t>
+  </si>
+  <si>
+    <t>ES9843QPRO</t>
   </si>
 </sst>
 </file>
@@ -244,35 +255,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,19 +621,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
@@ -689,7 +692,7 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>46050.455555555556</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -707,16 +710,16 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>135398</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>130996</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>3024</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>1378</v>
       </c>
       <c r="K2" s="1"/>
@@ -749,7 +752,7 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>46050.78125</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -767,16 +770,16 @@
       <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>4425</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>934</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>2984</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>507</v>
       </c>
       <c r="K3" s="1"/>
@@ -809,7 +812,7 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>46051.384027777778</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -827,16 +830,16 @@
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>3491</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>2987</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>496</v>
       </c>
       <c r="L4" s="1">
@@ -853,7 +856,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -863,10 +866,10 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="L5" s="1">
         <f>+G5</f>
         <v>0</v>
@@ -881,15 +884,15 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="L6" s="1">
         <f>+L5</f>
         <v>0</v>
@@ -904,16 +907,16 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="L7" s="1">
         <f>+L6</f>
         <v>0</v>
@@ -982,28 +985,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D558F4-6057-4F2C-81C5-5915C15CCD8D}">
-  <dimension ref="A1:AC15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00867F3B-FA12-4D58-B34A-9C1AE24D6129}">
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
@@ -1064,49 +1065,28 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>46050.515277777777</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1544801</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3006266</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>64079</v>
-      </c>
-      <c r="H2" s="5">
-        <v>54094</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>9850</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>60181</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1">
-        <f>+G2</f>
-        <v>64079</v>
-      </c>
-      <c r="M2" s="1">
-        <f>+H2+I2</f>
-        <v>54094</v>
-      </c>
-      <c r="N2" s="2">
-        <f>+M2/L2</f>
-        <v>0.84417671936203753</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1124,48 +1104,48 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>46051.368055555555</v>
+      <c r="A3" s="3">
+        <v>46041.40902777778</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1544801</v>
+      <c r="C3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3006266</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9851</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5745</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>4075</v>
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>35921</v>
+      </c>
+      <c r="H3" s="4">
+        <v>27890</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4653</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3342</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <f>+L2</f>
-        <v>64079</v>
+        <f>+G3</f>
+        <v>35921</v>
       </c>
       <c r="M3" s="1">
-        <f>+H3+I3+M2</f>
-        <v>59839</v>
+        <f>+H3+I3</f>
+        <v>32543</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N15" si="0">+M3/L3</f>
-        <v>0.93383167652429033</v>
+        <f>+M3/L3</f>
+        <v>0.90596030177333597</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1184,198 +1164,180 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>46051.756249999999</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1544801</v>
+      <c r="C4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3006266</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4076</v>
-      </c>
-      <c r="H4" s="5">
-        <v>579</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>3478</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <f>+G2-G3</f>
+        <v>24260</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <f>+L3</f>
-        <v>64079</v>
+        <f>+G4+L3</f>
+        <v>60181</v>
       </c>
       <c r="M4" s="1">
         <f>+H4+I4+M3</f>
-        <v>60418</v>
+        <v>32543</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.94286739805552522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>46059.614583333336</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1544801</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5">
-        <v>60411</v>
-      </c>
-      <c r="H5" s="5">
-        <v>40723</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>19675</v>
-      </c>
+        <f t="shared" ref="N4:N9" si="0">+M4/L4</f>
+        <v>0.54075206460510794</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="L5" s="1">
-        <f>+G5</f>
-        <v>60411</v>
+        <f>+L4</f>
+        <v>60181</v>
       </c>
       <c r="M5" s="1">
-        <f>+H5+I5</f>
-        <v>40723</v>
+        <f>+H5+I5+M4</f>
+        <v>32543</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0.67409908791445261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>46062.675023148149</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1544801</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9">
-        <v>19623</v>
-      </c>
-      <c r="H6" s="9">
-        <v>16456</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>3162</v>
-      </c>
+        <v>0.54075206460510794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="L6" s="1">
-        <f>+L5</f>
-        <v>60411</v>
+        <f>+G6</f>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f>+H6+I6+M5</f>
-        <v>57179</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.94649980963731772</v>
+        <f>+H6+I6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>46063.406817129631</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1544801</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3154</v>
-      </c>
-      <c r="H7" s="9">
-        <v>947</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2206</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="L7" s="1">
         <f>+L6</f>
-        <v>60411</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>+H7+I7+M6</f>
-        <v>58126</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96217576269222493</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="1">
+        <f>+L7</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f>+H8+I8+M7</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N9" s="2"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="1">
+        <f>+L8</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f>+H9+M8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N10" s="2"/>
@@ -1395,10 +1357,12 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N15" s="2"/>
     </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1412,19 +1376,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
@@ -1485,7 +1447,7 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1499,12 +1461,12 @@
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>56860</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
         <f>+G2</f>
@@ -1535,16 +1497,16 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
         <f>+L2</f>
@@ -1575,16 +1537,16 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="L4" s="1">
         <f>+L3</f>
         <v>56860</v>
@@ -1599,16 +1561,16 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="L5" s="1">
         <f>+G5</f>
         <v>0</v>
@@ -1623,15 +1585,15 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="L6" s="1">
         <f>+L5</f>
         <v>0</v>
@@ -1646,16 +1608,16 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="L7" s="1">
         <f>+L6</f>
         <v>0</v>
@@ -1728,23 +1690,22 @@
   <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="12" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
@@ -1805,7 +1766,7 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>46056.581944444442</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1823,16 +1784,16 @@
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>56842</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>27835</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>12579</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>10274</v>
       </c>
       <c r="K2" s="1"/>
@@ -1865,7 +1826,7 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>46058.372916666667</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1883,16 +1844,16 @@
       <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>10274</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>2142</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>1329</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>6822</v>
       </c>
       <c r="K3" s="1"/>
@@ -1925,10 +1886,10 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>46059.420138888891</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1937,22 +1898,22 @@
       <c r="D4" s="1">
         <v>8007616</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>6820</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>300</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>390</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>6110</v>
       </c>
       <c r="L4" s="1">
@@ -1969,7 +1930,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>46057.575821759259</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1984,19 +1945,19 @@
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>26013</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>14906</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>1989</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>8710</v>
       </c>
       <c r="L5" s="1">
@@ -2013,34 +1974,34 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>46060.636805555558</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>8007616</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>11677</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="4">
         <v>6458</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="4">
         <v>890</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="4">
         <v>4259</v>
       </c>
       <c r="L6" s="1">
@@ -2057,7 +2018,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>46062.354861111111</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2072,19 +2033,19 @@
       <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="4">
         <v>4257</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>1212</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>281</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="4">
         <v>2758</v>
       </c>
       <c r="L7" s="1">
@@ -2101,34 +2062,34 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>46062.621631944443</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>8007616</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>2723</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>177</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>151</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>2388</v>
       </c>
       <c r="L8" s="1">
@@ -2154,9 +2115,472 @@
       <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA262AA5-2660-451D-9DD0-CAFF7A99C6D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D558F4-6057-4F2C-81C5-5915C15CCD8D}">
+  <dimension ref="A1:AC15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>46050.515277777777</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1544801</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>64079</v>
+      </c>
+      <c r="H2" s="4">
+        <v>54094</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9850</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <f>+G2</f>
+        <v>64079</v>
+      </c>
+      <c r="M2" s="1">
+        <f>+H2+I2</f>
+        <v>54094</v>
+      </c>
+      <c r="N2" s="2">
+        <f>+M2/L2</f>
+        <v>0.84417671936203753</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>46051.368055555555</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1544801</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9851</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5745</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4075</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <f>+L2</f>
+        <v>64079</v>
+      </c>
+      <c r="M3" s="1">
+        <f>+H3+I3+M2</f>
+        <v>59839</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N7" si="0">+M3/L3</f>
+        <v>0.93383167652429033</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>46051.756249999999</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1544801</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4076</v>
+      </c>
+      <c r="H4" s="4">
+        <v>579</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3478</v>
+      </c>
+      <c r="L4" s="1">
+        <f>+L3</f>
+        <v>64079</v>
+      </c>
+      <c r="M4" s="1">
+        <f>+H4+I4+M3</f>
+        <v>60418</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94286739805552522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>46059.614583333336</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1544801</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>60411</v>
+      </c>
+      <c r="H5" s="4">
+        <v>40723</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>19675</v>
+      </c>
+      <c r="L5" s="1">
+        <f>+G5</f>
+        <v>60411</v>
+      </c>
+      <c r="M5" s="1">
+        <f>+H5+I5</f>
+        <v>40723</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67409908791445261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>46062.675023148149</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1544801</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>19623</v>
+      </c>
+      <c r="H6" s="4">
+        <v>16456</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3162</v>
+      </c>
+      <c r="L6" s="1">
+        <f>+L5</f>
+        <v>60411</v>
+      </c>
+      <c r="M6" s="1">
+        <f>+H6+I6+M5</f>
+        <v>57179</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94649980963731772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>46063.406817129631</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1544801</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3154</v>
+      </c>
+      <c r="H7" s="4">
+        <v>947</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2206</v>
+      </c>
+      <c r="L7" s="1">
+        <f>+L6</f>
+        <v>60411</v>
+      </c>
+      <c r="M7" s="1">
+        <f>+H7+I7+M6</f>
+        <v>58126</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96217576269222493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>46063.54787037037</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1544801</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2216</v>
+      </c>
+      <c r="H8" s="4">
+        <v>352</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1639</v>
+      </c>
+      <c r="J8" s="4">
+        <v>225</v>
+      </c>
+      <c r="L8" s="1">
+        <f>+L7</f>
+        <v>60411</v>
+      </c>
+      <c r="M8" s="1">
+        <f>+H8+M7</f>
+        <v>58478</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8" si="1">+M8/L8</f>
+        <v>0.96800251609806165</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
